--- a/Methods description.xlsx
+++ b/Methods description.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -38,6 +38,12 @@
     <t xml:space="preserve">Assignment</t>
   </si>
   <si>
+    <t xml:space="preserve">Done?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review</t>
+  </si>
+  <si>
     <t xml:space="preserve">BigInt(const bool* const)</t>
   </si>
   <si>
@@ -93,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">Return 0 if nonzero, else 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bảo</t>
   </si>
   <si>
     <t xml:space="preserve">Operator ~</t>
@@ -338,17 +347,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="41.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
@@ -369,252 +378,286 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -633,10 +676,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="E9:E15 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -663,72 +706,75 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Methods description.xlsx
+++ b/Methods description.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -77,10 +77,16 @@
     <t xml:space="preserve">Truờng</t>
   </si>
   <si>
-    <t xml:space="preserve">Operator -</t>
+    <t xml:space="preserve">Operator – (2)</t>
   </si>
   <si>
     <t xml:space="preserve">subtracting two BigInts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator – (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opposite operator</t>
   </si>
   <si>
     <t xml:space="preserve">Operator *</t>
@@ -347,10 +353,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9:E15"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -451,13 +457,13 @@
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -476,31 +482,31 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>26</v>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,7 +520,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,7 +534,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,7 +548,7 @@
         <v>34</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,7 +562,7 @@
         <v>36</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -569,52 +575,52 @@
       <c r="C15" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="D16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="E17" s="0" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="0" t="s">
@@ -626,38 +632,55 @@
         <v>48</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="E19" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>52</v>
+      <c r="E20" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="0" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +702,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="E9:E15 F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="E21:E22 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -715,10 +738,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>17</v>
@@ -726,7 +749,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>8</v>
@@ -737,13 +760,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>17</v>
@@ -751,13 +774,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>17</v>
@@ -765,13 +788,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>17</v>

--- a/Methods description.xlsx
+++ b/Methods description.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -68,133 +68,136 @@
     <t xml:space="preserve">Operator +</t>
   </si>
   <si>
+    <t xml:space="preserve">BigInt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adding two BigInts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truờng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator – (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subtracting two BigInts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator – (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opposite operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiplying two BigInts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dividing two BigInts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return 0 if nonzero, else 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bảo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator ~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flipping bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator &amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitwise and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitwise or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator ^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitwise exclusive-or (xor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator &lt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left shifting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator &gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right shifting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arithmetic shifting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator ==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true/false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equal comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator !=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not-equal comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may reuse opt ==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator &lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less-than comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater-than comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator &lt;=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less-than-or-equal comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may reuse opt &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator &gt;=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater-than-or-equal comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may reuse opt &lt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">BigNum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adding two BigInts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Truờng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator – (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subtracting two BigInts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator – (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opposite operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiplying two BigInts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator /</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dividing two BigInts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return 0 if nonzero, else 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bảo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator ~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flipping bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator &amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bitwise and</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bitwise or</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator ^</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bitwise exclusive-or (xor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator &lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left shifting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator &gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right shifting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arithmetic shifting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator ==</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true/false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equal comparison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator !=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not-equal comparison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may reuse opt ==</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator &lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less-than comparison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator &gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater-than comparison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator &lt;=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less-than-or-equal comparison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may reuse opt &gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator &gt;=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater-than-or-equal comparison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">may reuse opt &lt;</t>
   </si>
   <si>
     <t xml:space="preserve">Default constructor</t>
@@ -356,7 +359,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21:E22"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -443,7 +446,7 @@
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -471,7 +474,7 @@
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -485,7 +488,7 @@
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -576,7 +579,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,7 +596,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,7 +705,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="E21:E22 F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="E16 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -735,13 +738,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>17</v>
@@ -749,7 +752,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>8</v>
@@ -760,13 +763,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>17</v>
@@ -774,13 +777,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>17</v>
@@ -788,13 +791,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>17</v>

--- a/Methods description.xlsx
+++ b/Methods description.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -44,6 +44,15 @@
     <t xml:space="preserve">Review</t>
   </si>
   <si>
+    <t xml:space="preserve">BigInt()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bảo</t>
+  </si>
+  <si>
     <t xml:space="preserve">BigInt(const bool* const)</t>
   </si>
   <si>
@@ -65,6 +74,15 @@
     <t xml:space="preserve">Construction from a long long number</t>
   </si>
   <si>
+    <t xml:space="preserve">BigInt(int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction from a int number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because BigInt(long long) doesn’t take int argument :S</t>
+  </si>
+  <si>
     <t xml:space="preserve">Operator +</t>
   </si>
   <si>
@@ -107,9 +125,6 @@
     <t xml:space="preserve">Return 0 if nonzero, else 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bảo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Operator ~</t>
   </si>
   <si>
@@ -197,10 +212,22 @@
     <t xml:space="preserve">may reuse opt &lt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Operator =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BigInt&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigning operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operator bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casting operator</t>
+  </si>
+  <si>
     <t xml:space="preserve">BigNum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default constructor</t>
   </si>
   <si>
     <t xml:space="preserve">should set data to {0, 0}</t>
@@ -356,17 +383,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="41.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
@@ -394,189 +421,184 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>26</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>29</v>
+      <c r="A11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>9</v>
@@ -584,15 +606,12 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="0" t="s">
@@ -600,42 +619,42 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="0" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="E17" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="E18" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>49</v>
@@ -645,45 +664,104 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>51</v>
       </c>
+      <c r="D20" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="E20" s="0" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="A21" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="B21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="E21" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +783,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="E16 F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -738,69 +816,69 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Methods description.xlsx
+++ b/Methods description.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -225,6 +225,30 @@
   </si>
   <si>
     <t xml:space="preserve">casting operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">printing operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ostream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses 3 long long to represent decimal format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scanning operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">istream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read string</t>
   </si>
   <si>
     <t xml:space="preserve">BigNum</t>
@@ -383,10 +407,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -476,7 +500,9 @@
       <c r="D6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -721,6 +747,9 @@
       <c r="D23" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="E23" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
@@ -735,6 +764,9 @@
       <c r="D24" s="0" t="s">
         <v>62</v>
       </c>
+      <c r="E24" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -761,6 +793,40 @@
         <v>67</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -783,7 +849,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="E23:E24 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -816,13 +882,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>23</v>
@@ -830,7 +896,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -841,13 +907,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>23</v>
@@ -855,13 +921,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>23</v>
@@ -869,13 +935,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>23</v>

--- a/Methods description.xlsx
+++ b/Methods description.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BigInt" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="BigNum" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="BigNum" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="BigInt" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="BigFloat" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -41,24 +42,63 @@
     <t xml:space="preserve">Done?</t>
   </si>
   <si>
+    <t xml:space="preserve">BigNum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should set data to {0, 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truờng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BigNum(const bool* const)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction from an array of 128 boolean values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set_bit(int index, bool value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set index-th bit to value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_bit(int index)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return index-th bit value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operator=(const BigNum&amp;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BigNum&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign operator</t>
+  </si>
+  <si>
     <t xml:space="preserve">Review</t>
   </si>
   <si>
     <t xml:space="preserve">BigInt()</t>
   </si>
   <si>
-    <t xml:space="preserve">Default constructor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bảo</t>
   </si>
   <si>
     <t xml:space="preserve">BigInt(const bool* const)</t>
   </si>
   <si>
-    <t xml:space="preserve">Construction from an array of 128 boolean values</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chiến</t>
   </si>
   <si>
@@ -92,9 +132,6 @@
     <t xml:space="preserve">adding two BigInts</t>
   </si>
   <si>
-    <t xml:space="preserve">Truờng</t>
-  </si>
-  <si>
     <t xml:space="preserve">Operator – (2)</t>
   </si>
   <si>
@@ -251,40 +288,16 @@
     <t xml:space="preserve">Read string</t>
   </si>
   <si>
-    <t xml:space="preserve">BigNum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">should set data to {0, 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BigNum(const bool* const)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set_bit(int index, bool value)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set index-th bit to value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get_bit(int index)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return index-th bit value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">operator=(const BigNum&amp;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BigNum&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assign operator</t>
+    <t xml:space="preserve">operator bool*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to bit array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constructors</t>
   </si>
 </sst>
 </file>
@@ -407,10 +420,127 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="41.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23:E24"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -442,392 +572,406 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -841,15 +985,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="E23:E24 F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -882,69 +1026,78 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Methods description.xlsx
+++ b/Methods description.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">to bit array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operator %</t>
   </si>
   <si>
     <t xml:space="preserve">Constructors</t>
@@ -537,10 +540,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -672,7 +675,7 @@
       <c r="C9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -846,7 +849,7 @@
       <c r="C21" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -860,7 +863,7 @@
       <c r="C22" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -877,7 +880,7 @@
       <c r="D23" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -894,7 +897,7 @@
       <c r="D24" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -971,6 +974,14 @@
         <v>90</v>
       </c>
       <c r="E29" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -993,7 +1004,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1026,7 +1037,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
